--- a/protocol_database/food.xlsx
+++ b/protocol_database/food.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,19 +463,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHIC&amp;BAC TORTEL</t>
+          <t>food name (food vendor)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>food (food)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E3" t="n">
         <v>100</v>
       </c>
     </row>

--- a/protocol_database/food.xlsx
+++ b/protocol_database/food.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,66 +436,91 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Cost (£)</t>
+          <t>vendor</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>calories (g/amount)</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>protein (g/amount)</t>
+          <t>calories</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>amount (g)</t>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>food name (food vendor)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>food name</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>vendor name</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0.1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.1</v>
       </c>
-      <c r="E2" t="n">
-        <v>100</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://github.com</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>food (food)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
+          <t>food name</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>vendor name</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://github.com</t>
+        </is>
       </c>
     </row>
   </sheetData>
